--- a/CreatePurchaseOrder/CreatePurchaseOrder.rvl.xlsx
+++ b/CreatePurchaseOrder/CreatePurchaseOrder.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="173">
   <si>
     <t>Flow</t>
   </si>
@@ -523,6 +523,15 @@
   </si>
   <si>
     <t>rowCount</t>
+  </si>
+  <si>
+    <t>Navigator</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
 </sst>
 </file>
@@ -543,7 +552,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="177">
+  <borders count="178">
     <border>
       <left/>
       <right/>
@@ -727,11 +736,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -909,6 +919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,6 +972,18 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1533,7 +1556,7 @@
         <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
@@ -1884,7 +1907,7 @@
         <v>20</v>
       </c>
       <c r="G63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">

--- a/CreatePurchaseOrder/CreatePurchaseOrder.rvl.xlsx
+++ b/CreatePurchaseOrder/CreatePurchaseOrder.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="175">
   <si>
     <t>Flow</t>
   </si>
@@ -532,6 +532,12 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>purchtablelistpage_LineViewTab1</t>
+  </si>
+  <si>
+    <t>Purchase order header</t>
   </si>
 </sst>
 </file>
@@ -1285,6 +1291,24 @@
       <c r="A21" t="s">
         <v>7</v>
       </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">

--- a/CreatePurchaseOrder/CreatePurchaseOrder.rvl.xlsx
+++ b/CreatePurchaseOrder/CreatePurchaseOrder.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="175">
   <si>
     <t>Flow</t>
   </si>
@@ -935,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H95"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.86328125" customWidth="true"/>
@@ -1540,19 +1540,19 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38">
@@ -1560,90 +1560,99 @@
         <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" t="s">
         <v>89</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G42" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" t="s">
-        <v>148</v>
-      </c>
-      <c r="G40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" t="s">
-        <v>163</v>
-      </c>
-      <c r="E42" t="s">
-        <v>156</v>
-      </c>
-      <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1651,30 +1660,30 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1683,36 +1692,27 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -1723,33 +1723,27 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>86</v>
+      </c>
+      <c r="E47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49">
@@ -1757,68 +1751,83 @@
         <v>146</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>146</v>
-      </c>
-      <c r="B50" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
         <v>37</v>
       </c>
-      <c r="B52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" t="s">
-        <v>7</v>
+      <c r="B54" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s">
-        <v>37</v>
-      </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>60</v>
+      </c>
+      <c r="E55" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" t="s">
+        <v>74</v>
       </c>
       <c r="E56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56" t="s">
         <v>63</v>
-      </c>
-      <c r="F56" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="57">
@@ -1829,55 +1838,52 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>7</v>
       </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="B59" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s">
-        <v>37</v>
-      </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -1888,179 +1894,182 @@
         <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F61" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="G61" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>66</v>
-      </c>
-      <c r="D62" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="E62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G62" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G63" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="s">
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" t="s">
+        <v>74</v>
       </c>
       <c r="E64" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" t="s">
         <v>93</v>
       </c>
-      <c r="F64" t="s">
-        <v>64</v>
-      </c>
-      <c r="G64" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" t="s">
-        <v>74</v>
-      </c>
-      <c r="E65" t="s">
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" t="s">
         <v>75</v>
       </c>
-      <c r="F65" t="s">
-        <v>89</v>
-      </c>
-      <c r="G65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67" t="s">
-        <v>127</v>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>111</v>
       </c>
       <c r="E70" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>7</v>
       </c>
-      <c r="B71" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="72">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>115</v>
+      </c>
+      <c r="H72" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="E73" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s">
-        <v>115</v>
-      </c>
-      <c r="H73" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>102</v>
       </c>
       <c r="E74" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -2068,252 +2077,229 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="F75" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="G75" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" t="s">
-        <v>22</v>
-      </c>
-      <c r="C76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" t="s">
-        <v>98</v>
-      </c>
-      <c r="F76" t="s">
-        <v>89</v>
-      </c>
-      <c r="G76" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s">
+        <v>128</v>
+      </c>
+    </row>
     <row r="78">
-      <c r="A78" t="s">
-        <v>37</v>
-      </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
       <c r="B79" t="s">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>7</v>
       </c>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
-        <v>59</v>
-      </c>
-      <c r="D80" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" t="s">
-        <v>7</v>
-      </c>
-      <c r="G80" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="81">
-      <c r="A81" t="s">
-        <v>7</v>
-      </c>
+      <c r="A81" s="41"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="48"/>
     </row>
     <row r="82">
-      <c r="A82" s="41"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="48"/>
+      <c r="A82" s="49"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="56"/>
     </row>
     <row r="83">
-      <c r="A83" s="49"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="56"/>
+      <c r="A83" s="57"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="64"/>
     </row>
     <row r="84">
-      <c r="A84" s="57"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="63"/>
-      <c r="H84" s="64"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="70"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="72"/>
     </row>
     <row r="85">
-      <c r="A85" s="65"/>
-      <c r="B85" s="66"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="69"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="72"/>
+      <c r="A85" s="73"/>
+      <c r="B85" s="74"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="79"/>
+      <c r="H85" s="80"/>
     </row>
     <row r="86">
-      <c r="A86" s="73"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="79"/>
-      <c r="H86" s="80"/>
+      <c r="A86" s="81"/>
+      <c r="B86" s="82"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="86"/>
+      <c r="G86" s="87"/>
+      <c r="H86" s="88"/>
     </row>
     <row r="87">
-      <c r="A87" s="81"/>
-      <c r="B87" s="82"/>
-      <c r="C87" s="83"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="87"/>
-      <c r="H87" s="88"/>
+      <c r="A87" s="89"/>
+      <c r="B87" s="90"/>
+      <c r="C87" s="91"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="94"/>
+      <c r="G87" s="95"/>
+      <c r="H87" s="96"/>
     </row>
     <row r="88">
-      <c r="A88" s="89"/>
-      <c r="B88" s="90"/>
-      <c r="C88" s="91"/>
-      <c r="D88" s="92"/>
-      <c r="E88" s="93"/>
-      <c r="F88" s="94"/>
-      <c r="G88" s="95"/>
-      <c r="H88" s="96"/>
+      <c r="A88" s="97"/>
+      <c r="B88" s="98"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="100"/>
+      <c r="E88" s="101"/>
+      <c r="F88" s="102"/>
+      <c r="G88" s="103"/>
+      <c r="H88" s="104"/>
     </row>
     <row r="89">
-      <c r="A89" s="97"/>
-      <c r="B89" s="98"/>
-      <c r="C89" s="99"/>
-      <c r="D89" s="100"/>
-      <c r="E89" s="101"/>
-      <c r="F89" s="102"/>
-      <c r="G89" s="103"/>
-      <c r="H89" s="104"/>
+      <c r="A89" s="105"/>
+      <c r="B89" s="106"/>
+      <c r="C89" s="107"/>
+      <c r="D89" s="108"/>
+      <c r="E89" s="109"/>
+      <c r="F89" s="110"/>
+      <c r="G89" s="111"/>
+      <c r="H89" s="112"/>
     </row>
     <row r="90">
-      <c r="A90" s="105"/>
-      <c r="B90" s="106"/>
-      <c r="C90" s="107"/>
-      <c r="D90" s="108"/>
-      <c r="E90" s="109"/>
-      <c r="F90" s="110"/>
-      <c r="G90" s="111"/>
-      <c r="H90" s="112"/>
+      <c r="A90" s="113"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="115"/>
+      <c r="D90" s="116"/>
+      <c r="E90" s="117"/>
+      <c r="F90" s="118"/>
+      <c r="G90" s="119"/>
+      <c r="H90" s="120"/>
     </row>
     <row r="91">
-      <c r="A91" s="113"/>
-      <c r="B91" s="114"/>
-      <c r="C91" s="115"/>
-      <c r="D91" s="116"/>
-      <c r="E91" s="117"/>
-      <c r="F91" s="118"/>
-      <c r="G91" s="119"/>
-      <c r="H91" s="120"/>
+      <c r="A91" s="121"/>
+      <c r="B91" s="122"/>
+      <c r="C91" s="123"/>
+      <c r="D91" s="124"/>
+      <c r="E91" s="125"/>
+      <c r="F91" s="126"/>
+      <c r="G91" s="127"/>
+      <c r="H91" s="128"/>
     </row>
     <row r="92">
-      <c r="A92" s="121"/>
-      <c r="B92" s="122"/>
-      <c r="C92" s="123"/>
-      <c r="D92" s="124"/>
-      <c r="E92" s="125"/>
-      <c r="F92" s="126"/>
-      <c r="G92" s="127"/>
-      <c r="H92" s="128"/>
+      <c r="A92" s="129"/>
+      <c r="B92" s="130"/>
+      <c r="C92" s="131"/>
+      <c r="D92" s="132"/>
+      <c r="E92" s="133"/>
+      <c r="F92" s="134"/>
+      <c r="G92" s="135"/>
+      <c r="H92" s="136"/>
     </row>
     <row r="93">
-      <c r="A93" s="129"/>
-      <c r="B93" s="130"/>
-      <c r="C93" s="131"/>
-      <c r="D93" s="132"/>
-      <c r="E93" s="133"/>
-      <c r="F93" s="134"/>
-      <c r="G93" s="135"/>
-      <c r="H93" s="136"/>
+      <c r="A93" s="137"/>
+      <c r="B93" s="138"/>
+      <c r="C93" s="139"/>
+      <c r="D93" s="140"/>
+      <c r="E93" s="141"/>
+      <c r="F93" s="142"/>
+      <c r="G93" s="143"/>
+      <c r="H93" s="144"/>
     </row>
     <row r="94">
-      <c r="A94" s="137"/>
-      <c r="B94" s="138"/>
-      <c r="C94" s="139"/>
-      <c r="D94" s="140"/>
-      <c r="E94" s="141"/>
-      <c r="F94" s="142"/>
-      <c r="G94" s="143"/>
-      <c r="H94" s="144"/>
+      <c r="A94" s="145"/>
+      <c r="B94" s="146"/>
+      <c r="C94" s="147"/>
+      <c r="D94" s="148"/>
+      <c r="E94" s="149"/>
+      <c r="F94" s="150"/>
+      <c r="G94" s="151"/>
+      <c r="H94" s="152"/>
     </row>
     <row r="95">
-      <c r="A95" s="145"/>
-      <c r="B95" s="146"/>
-      <c r="C95" s="147"/>
-      <c r="D95" s="148"/>
-      <c r="E95" s="149"/>
-      <c r="F95" s="150"/>
-      <c r="G95" s="151"/>
-      <c r="H95" s="152"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="153"/>
-      <c r="B96" s="154"/>
-      <c r="C96" s="155"/>
-      <c r="D96" s="156"/>
-      <c r="E96" s="157"/>
-      <c r="F96" s="158"/>
-      <c r="G96" s="159"/>
-      <c r="H96" s="160"/>
+      <c r="A95" s="153"/>
+      <c r="B95" s="154"/>
+      <c r="C95" s="155"/>
+      <c r="D95" s="156"/>
+      <c r="E95" s="157"/>
+      <c r="F95" s="158"/>
+      <c r="G95" s="159"/>
+      <c r="H95" s="160"/>
     </row>
   </sheetData>
 </worksheet>
